--- a/data/CREOArchive2.xlsx
+++ b/data/CREOArchive2.xlsx
@@ -72,12 +72,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Message</t>
+          <t>DatasetCell</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MESSAGE_KEY BIGINT NOT NULL ,SUBJECT VARCHAR(8000) NULL COLLATE "en-ci",DATE_ENTERED TIMESTAMP_LTZ NOT NULL ,DATE_SENT TIMESTAMP_LTZ NULL ,EXCEPTION VARCHAR(8000) NULL COLLATE "en-ci",CONTAINER_KEY INTEGER NULL ,COMMUNICATION_MAILING_KEY INTEGER NULL ,TEMPLATE_KEY INTEGER NULL ,IS_PRODUCTION BOOLEAN NOT NULL ,DATASET_ROW_KEY BIGINT NULL ,SERVER VARCHAR(8000) NULL COLLATE "en-ci",MESSAGE_ID VARCHAR(36) NOT NULL ,TYPE SMALLINT NULL ,NUM_EXCEPTIONS INTEGER NOT NULL ,DELIVERY_STATUS_KEY INTEGER NULL ,IN_REPLY_TO_MESSAGE_KEY BIGINT NULL ,DIRECTION SMALLINT NOT NULL ,SEND_AFTER TIMESTAMP_LTZ NULL ,SEND_AFTER_MESSAGE_KEY BIGINT NULL ,IS_FINISHED BOOLEAN NOT NULL ,HEADERS VARCHAR(8000) NULL COLLATE "en-ci",VENDOR_ID VARCHAR(8000) NULL COLLATE "en-ci"</t>
+          <t>DATASET_ROW_KEY BIGINT NOT NULL ,DATASET_COLUMN_KEY INT NOT NULL ,DATASET_VALUE_KEY BIGINT NOT NULL </t>
         </is>
       </c>
     </row>
@@ -89,43 +89,43 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DATASET_ROW_KEY BIGINT NOT NULL ,DATASET_KEY INTEGER NOT NULL ,HAS_MESSAGE BOOLEAN NOT NULL </t>
+          <t>DATASET_ROW_KEY BIGINT NOT NULL ,DATASET_KEY INT NOT NULL ,HAS_MESSAGE BOOLEAN NOT NULL </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MessageContact</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MESSAGE_CONTACT_KEY INTEGER NOT NULL ,MESSAGE_KEY BIGINT NOT NULL ,CONTACT_KEY INTEGER NOT NULL ,TYPE INTEGER NOT NULL </t>
+          <t>APP_VERSION DECIMAL(38,0) NOT NULL </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DatasetCell</t>
+          <t>Message</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DATASET_ROW_KEY BIGINT NOT NULL ,DATASET_COLUMN_KEY INTEGER NOT NULL ,DATASET_VALUE_KEY BIGINT NOT NULL </t>
+          <t>MESSAGE_KEY BIGINT NOT NULL ,SUBJECT VARCHAR(8000) NULL COLLATE "en-ci",DATE_ENTERED TIMESTAMP_LTZ NOT NULL ,DATE_SENT TIMESTAMP_LTZ NULL ,EXCEPTION VARCHAR(8000) NULL COLLATE "en-ci",CONTAINER_KEY INT NULL ,COMMUNICATION_MAILING_KEY INT NULL ,TEMPLATE_KEY INT NULL ,IS_PRODUCTION BOOLEAN NOT NULL ,DATASET_ROW_KEY BIGINT NULL ,SERVER VARCHAR(8000) NULL COLLATE "en-ci",MESSAGE_ID VARCHAR(36) NOT NULL ,TYPE SMALLINT NULL ,NUM_EXCEPTIONS INT NOT NULL ,DELIVERY_STATUS_KEY INT NULL ,IN_REPLY_TO_MESSAGE_KEY BIGINT NULL ,DIRECTION SMALLINT NOT NULL ,SEND_AFTER TIMESTAMP_LTZ NULL ,SEND_AFTER_MESSAGE_KEY BIGINT NULL ,IS_FINISHED BOOLEAN NOT NULL ,HEADERS VARCHAR(8000) NULL COLLATE "en-ci",VENDOR_ID VARCHAR(8000) NULL COLLATE "en-ci"</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>MessageContact</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>APP_VERSION DECIMAL(38,38) NOT NULL </t>
+          <t>MESSAGE_CONTACT_KEY INT NOT NULL ,MESSAGE_KEY BIGINT NOT NULL ,CONTACT_KEY INT NOT NULL ,TYPE INT NOT NULL </t>
         </is>
       </c>
     </row>
@@ -137,7 +137,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MESSAGE_CONTACT_KEY BIGINT NOT NULL ,MESSAGE_KEY BIGINT NOT NULL ,CONTACT_KEY INTEGER NOT NULL ,TYPE INTEGER NOT NULL </t>
+          <t>MESSAGE_CONTACT_KEY BIGINT NOT NULL ,MESSAGE_KEY BIGINT NOT NULL ,CONTACT_KEY INT NOT NULL ,TYPE INT NOT NULL </t>
         </is>
       </c>
     </row>
@@ -149,7 +149,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MESSAGE_DELIVERY_STATUS_KEY BIGINT NOT NULL ,MESSAGE_KEY BIGINT NOT NULL ,DELIVERY_STATUS_KEY INTEGER NOT NULL ,DATE_ENTERED TIMESTAMP_LTZ NOT NULL ,DETAIL VARCHAR(8000) NULL COLLATE "en-ci"</t>
+          <t>MESSAGE_DELIVERY_STATUS_KEY BIGINT NOT NULL ,MESSAGE_KEY BIGINT NOT NULL ,DELIVERY_STATUS_KEY INT NOT NULL ,DATE_ENTERED TIMESTAMP_LTZ NOT NULL ,DETAIL VARCHAR(8000) NULL COLLATE "en-ci"</t>
         </is>
       </c>
     </row>
@@ -161,7 +161,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MESSAGE_PART_KEY INTEGER NOT NULL ,MESSAGE_KEY BIGINT NULL ,CONTENT_TYPE VARCHAR(8000) NULL COLLATE "en-ci",FILENAME VARCHAR(8000) NULL COLLATE "en-ci",DATA VARIANT NULL ,IS_COMPRESSED BOOLEAN NOT NULL </t>
+          <t>MESSAGE_PART_KEY INT NOT NULL ,MESSAGE_KEY BIGINT NULL ,CONTENT_TYPE VARCHAR(8000) NULL COLLATE "en-ci",FILENAME VARCHAR(8000) NULL COLLATE "en-ci",DATA VARIANT NULL ,IS_COMPRESSED BOOLEAN NOT NULL </t>
         </is>
       </c>
     </row>
